--- a/table/DGP4_table.xlsx
+++ b/table/DGP4_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/table/DGP4_table.xlsx
+++ b/table/DGP4_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9065</v>
+        <v>0.9365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9245</v>
+        <v>0.957</v>
       </c>
       <c r="G2" t="n">
-        <v>4.17368005753974</v>
+        <v>4.19862241567014</v>
       </c>
       <c r="H2" t="n">
-        <v>3.09839301378813</v>
+        <v>2.8619129692635</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4627654302479</v>
+        <v>43.5923186532455</v>
       </c>
       <c r="J2" t="n">
-        <v>31.3915068218832</v>
+        <v>25.1033602367062</v>
       </c>
       <c r="K2" t="n">
-        <v>26.5616616681855</v>
+        <v>26.5723556489652</v>
       </c>
       <c r="L2" t="n">
-        <v>26.0200271252441</v>
+        <v>25.3540255021897</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.906</v>
+        <v>0.9275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.926</v>
+        <v>0.9525</v>
       </c>
       <c r="G3" t="n">
-        <v>4.46548040622236</v>
+        <v>4.37118045851575</v>
       </c>
       <c r="H3" t="n">
-        <v>3.28733351361494</v>
+        <v>3.00959793781424</v>
       </c>
       <c r="I3" t="n">
-        <v>51.4396958115909</v>
+        <v>48.69859886042</v>
       </c>
       <c r="J3" t="n">
-        <v>34.0425014698189</v>
+        <v>29.2900254629101</v>
       </c>
       <c r="K3" t="n">
-        <v>27.0517904963064</v>
+        <v>26.9043161013093</v>
       </c>
       <c r="L3" t="n">
-        <v>26.5678969941838</v>
+        <v>25.8150945790857</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.893</v>
+        <v>0.9175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9165</v>
+        <v>0.942</v>
       </c>
       <c r="G4" t="n">
-        <v>4.48249422179368</v>
+        <v>4.33670504852863</v>
       </c>
       <c r="H4" t="n">
-        <v>3.16693966168122</v>
+        <v>2.99990076594503</v>
       </c>
       <c r="I4" t="n">
-        <v>55.3648926567349</v>
+        <v>51.1606410607282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.353888733763</v>
+        <v>29.8339260321031</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2323322945272</v>
+        <v>26.9882877264419</v>
       </c>
       <c r="L4" t="n">
-        <v>26.5511427453972</v>
+        <v>25.894245810738</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8975</v>
+        <v>0.918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9205</v>
+        <v>0.942</v>
       </c>
       <c r="G5" t="n">
-        <v>4.49177786200022</v>
+        <v>4.40948271700321</v>
       </c>
       <c r="H5" t="n">
-        <v>3.39948714367841</v>
+        <v>3.03421263266259</v>
       </c>
       <c r="I5" t="n">
-        <v>54.0672236007559</v>
+        <v>50.1842536955882</v>
       </c>
       <c r="J5" t="n">
-        <v>36.1706698202455</v>
+        <v>30.4888835181613</v>
       </c>
       <c r="K5" t="n">
-        <v>27.4361590363419</v>
+        <v>27.1717863205727</v>
       </c>
       <c r="L5" t="n">
-        <v>27.0651919529188</v>
+        <v>26.0465224348375</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.903</v>
+        <v>0.913</v>
       </c>
       <c r="F6" t="n">
-        <v>0.924</v>
+        <v>0.9405</v>
       </c>
       <c r="G6" t="n">
-        <v>4.48316222455376</v>
+        <v>4.38487341853001</v>
       </c>
       <c r="H6" t="n">
-        <v>3.42679729170633</v>
+        <v>2.9969314055732</v>
       </c>
       <c r="I6" t="n">
-        <v>55.7747953385346</v>
+        <v>49.9584135491449</v>
       </c>
       <c r="J6" t="n">
-        <v>37.9815356091856</v>
+        <v>30.0165312307996</v>
       </c>
       <c r="K6" t="n">
-        <v>27.3089423621558</v>
+        <v>27.1171481265229</v>
       </c>
       <c r="L6" t="n">
-        <v>27.1927840964</v>
+        <v>26.0414723425821</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9015</v>
+        <v>0.9185</v>
       </c>
       <c r="F7" t="n">
-        <v>0.927</v>
+        <v>0.9495</v>
       </c>
       <c r="G7" t="n">
-        <v>4.52904807911331</v>
+        <v>4.45767101017718</v>
       </c>
       <c r="H7" t="n">
-        <v>3.23247748837575</v>
+        <v>3.07037228594572</v>
       </c>
       <c r="I7" t="n">
-        <v>57.7059899669205</v>
+        <v>50.2388600036071</v>
       </c>
       <c r="J7" t="n">
-        <v>38.2113927777017</v>
+        <v>30.2587276375232</v>
       </c>
       <c r="K7" t="n">
-        <v>27.3106355135966</v>
+        <v>27.0541315832955</v>
       </c>
       <c r="L7" t="n">
-        <v>27.0055080054631</v>
+        <v>26.2244627921209</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8965</v>
+        <v>0.9075</v>
       </c>
       <c r="F8" t="n">
-        <v>0.923</v>
+        <v>0.935</v>
       </c>
       <c r="G8" t="n">
-        <v>4.42374367277666</v>
+        <v>4.60963704945846</v>
       </c>
       <c r="H8" t="n">
-        <v>3.32300706173711</v>
+        <v>3.14249057085437</v>
       </c>
       <c r="I8" t="n">
-        <v>56.9087281871449</v>
+        <v>53.6799279224525</v>
       </c>
       <c r="J8" t="n">
-        <v>38.7957954169864</v>
+        <v>32.5715386289409</v>
       </c>
       <c r="K8" t="n">
-        <v>27.6024531317402</v>
+        <v>27.147095327306</v>
       </c>
       <c r="L8" t="n">
-        <v>27.1691449604734</v>
+        <v>26.3196782948636</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.887</v>
+        <v>0.9035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9175</v>
+        <v>0.938</v>
       </c>
       <c r="G9" t="n">
-        <v>4.68807349456427</v>
+        <v>4.54749404882839</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35410140283468</v>
+        <v>3.22011166374382</v>
       </c>
       <c r="I9" t="n">
-        <v>60.961602159762</v>
+        <v>55.6408335938654</v>
       </c>
       <c r="J9" t="n">
-        <v>41.4258375532624</v>
+        <v>33.0952896773704</v>
       </c>
       <c r="K9" t="n">
-        <v>27.2655031182266</v>
+        <v>27.1078794171792</v>
       </c>
       <c r="L9" t="n">
-        <v>27.0283159205524</v>
+        <v>26.2010421448311</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9035</v>
+        <v>0.916</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9235</v>
+        <v>0.942</v>
       </c>
       <c r="G10" t="n">
-        <v>4.36720790536565</v>
+        <v>4.49103905676261</v>
       </c>
       <c r="H10" t="n">
-        <v>3.36063654385542</v>
+        <v>3.11688885386389</v>
       </c>
       <c r="I10" t="n">
-        <v>58.2103599991762</v>
+        <v>52.7856807151148</v>
       </c>
       <c r="J10" t="n">
-        <v>40.2359338471385</v>
+        <v>32.2242698283482</v>
       </c>
       <c r="K10" t="n">
-        <v>27.4258940357623</v>
+        <v>26.9421279175648</v>
       </c>
       <c r="L10" t="n">
-        <v>27.2848268801218</v>
+        <v>26.051297814316</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8975</v>
+        <v>0.919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9205</v>
+        <v>0.9425</v>
       </c>
       <c r="G11" t="n">
-        <v>4.38199428694633</v>
+        <v>4.4308635294337</v>
       </c>
       <c r="H11" t="n">
-        <v>3.37712092301091</v>
+        <v>3.13288889913792</v>
       </c>
       <c r="I11" t="n">
-        <v>59.6615123527862</v>
+        <v>52.7189353542258</v>
       </c>
       <c r="J11" t="n">
-        <v>40.963213661489</v>
+        <v>32.8149540785345</v>
       </c>
       <c r="K11" t="n">
-        <v>27.6080679623221</v>
+        <v>27.1750141458228</v>
       </c>
       <c r="L11" t="n">
-        <v>27.2862599174287</v>
+        <v>26.220268289652</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9405</v>
+        <v>0.9325</v>
       </c>
       <c r="F12" t="n">
-        <v>0.965</v>
+        <v>0.957</v>
       </c>
       <c r="G12" t="n">
-        <v>4.12154039723785</v>
+        <v>4.09456205158741</v>
       </c>
       <c r="H12" t="n">
-        <v>2.73470899054864</v>
+        <v>2.71493727332837</v>
       </c>
       <c r="I12" t="n">
-        <v>40.1343559433235</v>
+        <v>41.2607961768871</v>
       </c>
       <c r="J12" t="n">
-        <v>21.0304091670208</v>
+        <v>21.5532976044888</v>
       </c>
       <c r="K12" t="n">
-        <v>26.0031497767668</v>
+        <v>26.2261423839425</v>
       </c>
       <c r="L12" t="n">
-        <v>24.3806522637469</v>
+        <v>24.1377243536176</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9295</v>
+        <v>0.927</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9535</v>
+        <v>0.959</v>
       </c>
       <c r="G13" t="n">
-        <v>4.02982229898794</v>
+        <v>4.03477406671167</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72052480819549</v>
+        <v>2.78157601461594</v>
       </c>
       <c r="I13" t="n">
-        <v>41.4311455471099</v>
+        <v>44.6182535954385</v>
       </c>
       <c r="J13" t="n">
-        <v>22.7224446306724</v>
+        <v>23.9454807084248</v>
       </c>
       <c r="K13" t="n">
-        <v>26.1098592169902</v>
+        <v>26.4348828669526</v>
       </c>
       <c r="L13" t="n">
-        <v>24.4422828694127</v>
+        <v>24.587044035563</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.933</v>
+        <v>0.922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9595</v>
+        <v>0.9615</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2797136768842</v>
+        <v>4.35146590086342</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7482460463908</v>
+        <v>2.67870886920649</v>
       </c>
       <c r="I14" t="n">
-        <v>44.5746372540064</v>
+        <v>47.4277636906115</v>
       </c>
       <c r="J14" t="n">
-        <v>24.1426246908869</v>
+        <v>24.9293069324574</v>
       </c>
       <c r="K14" t="n">
-        <v>26.0591244754411</v>
+        <v>26.6136345481336</v>
       </c>
       <c r="L14" t="n">
-        <v>24.6711246484436</v>
+        <v>24.7231574383543</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.924</v>
+        <v>0.9295</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9485</v>
+        <v>0.9575</v>
       </c>
       <c r="G15" t="n">
-        <v>4.49655015650366</v>
+        <v>4.42495931282448</v>
       </c>
       <c r="H15" t="n">
-        <v>2.87857869073361</v>
+        <v>2.82575136399178</v>
       </c>
       <c r="I15" t="n">
-        <v>46.6111578360062</v>
+        <v>50.1343078831221</v>
       </c>
       <c r="J15" t="n">
-        <v>26.0862026578382</v>
+        <v>25.7022465230226</v>
       </c>
       <c r="K15" t="n">
-        <v>26.2061214703785</v>
+        <v>26.5697111279047</v>
       </c>
       <c r="L15" t="n">
-        <v>24.6750600721311</v>
+        <v>24.6683949531597</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.927</v>
+        <v>0.917</v>
       </c>
       <c r="F16" t="n">
         <v>0.9525</v>
       </c>
       <c r="G16" t="n">
-        <v>4.06327075094888</v>
+        <v>4.24988728682255</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6957128887817</v>
+        <v>2.74187099932379</v>
       </c>
       <c r="I16" t="n">
-        <v>44.7251102016563</v>
+        <v>49.6354415221765</v>
       </c>
       <c r="J16" t="n">
-        <v>24.6668301975318</v>
+        <v>26.9550554856744</v>
       </c>
       <c r="K16" t="n">
-        <v>26.312335756815</v>
+        <v>26.6433050922106</v>
       </c>
       <c r="L16" t="n">
-        <v>24.6913555084469</v>
+        <v>24.7790562646179</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.924</v>
+        <v>0.929</v>
       </c>
       <c r="F17" t="n">
-        <v>0.957</v>
+        <v>0.9585</v>
       </c>
       <c r="G17" t="n">
-        <v>4.06974245164912</v>
+        <v>4.25419078087394</v>
       </c>
       <c r="H17" t="n">
-        <v>2.70158454556954</v>
+        <v>2.77535650368738</v>
       </c>
       <c r="I17" t="n">
-        <v>46.8552230701776</v>
+        <v>47.5957923006247</v>
       </c>
       <c r="J17" t="n">
-        <v>25.3685338632403</v>
+        <v>25.4356441814395</v>
       </c>
       <c r="K17" t="n">
-        <v>26.5439717328286</v>
+        <v>26.4082400937855</v>
       </c>
       <c r="L17" t="n">
-        <v>24.9262048863747</v>
+        <v>24.6487181363151</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9345</v>
+        <v>0.926</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9625</v>
+        <v>0.956</v>
       </c>
       <c r="G18" t="n">
-        <v>4.30482974618115</v>
+        <v>4.44771485339359</v>
       </c>
       <c r="H18" t="n">
-        <v>2.77574897178324</v>
+        <v>2.81862475411392</v>
       </c>
       <c r="I18" t="n">
-        <v>49.1260061698969</v>
+        <v>47.493469825094</v>
       </c>
       <c r="J18" t="n">
-        <v>26.3579934034152</v>
+        <v>25.2323922799175</v>
       </c>
       <c r="K18" t="n">
-        <v>26.6879777901362</v>
+        <v>26.5836076166393</v>
       </c>
       <c r="L18" t="n">
-        <v>25.2405027022428</v>
+        <v>24.8377093185663</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9235</v>
+        <v>0.917</v>
       </c>
       <c r="F19" t="n">
-        <v>0.96</v>
+        <v>0.952</v>
       </c>
       <c r="G19" t="n">
-        <v>4.19841025456148</v>
+        <v>4.144126264718</v>
       </c>
       <c r="H19" t="n">
-        <v>2.72542569575756</v>
+        <v>2.72347678216186</v>
       </c>
       <c r="I19" t="n">
-        <v>51.106612249719</v>
+        <v>49.0304644864591</v>
       </c>
       <c r="J19" t="n">
-        <v>28.4229326400038</v>
+        <v>25.9748452907275</v>
       </c>
       <c r="K19" t="n">
-        <v>26.5001641752422</v>
+        <v>26.6784015722756</v>
       </c>
       <c r="L19" t="n">
-        <v>25.1847369405491</v>
+        <v>24.8594369571868</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.918</v>
+        <v>0.922</v>
       </c>
       <c r="F20" t="n">
-        <v>0.955</v>
+        <v>0.9565</v>
       </c>
       <c r="G20" t="n">
-        <v>4.26719260409055</v>
+        <v>4.20001236472661</v>
       </c>
       <c r="H20" t="n">
-        <v>2.87336432226819</v>
+        <v>2.69317195847736</v>
       </c>
       <c r="I20" t="n">
-        <v>51.3315756813363</v>
+        <v>48.7067196992391</v>
       </c>
       <c r="J20" t="n">
-        <v>29.0682088593169</v>
+        <v>26.7524647775239</v>
       </c>
       <c r="K20" t="n">
-        <v>26.6008259358794</v>
+        <v>26.6721026606261</v>
       </c>
       <c r="L20" t="n">
-        <v>25.1543250835731</v>
+        <v>25.0473371045532</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.917</v>
+        <v>0.9255</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9445</v>
+        <v>0.9595</v>
       </c>
       <c r="G21" t="n">
-        <v>4.23814501375956</v>
+        <v>4.26645111560976</v>
       </c>
       <c r="H21" t="n">
-        <v>2.81075269246467</v>
+        <v>2.77754452741085</v>
       </c>
       <c r="I21" t="n">
-        <v>52.8688281290829</v>
+        <v>47.9265062529914</v>
       </c>
       <c r="J21" t="n">
-        <v>29.9562629916471</v>
+        <v>25.61821506639</v>
       </c>
       <c r="K21" t="n">
-        <v>26.68166731295</v>
+        <v>26.6577836457837</v>
       </c>
       <c r="L21" t="n">
-        <v>25.1019219356084</v>
+        <v>25.0216438740606</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9215</v>
+        <v>0.9235</v>
       </c>
       <c r="F22" t="n">
-        <v>0.941</v>
+        <v>0.9495</v>
       </c>
       <c r="G22" t="n">
-        <v>3.86715584296663</v>
+        <v>3.7715755211462</v>
       </c>
       <c r="H22" t="n">
-        <v>3.12669611884466</v>
+        <v>2.9118102909592</v>
       </c>
       <c r="I22" t="n">
-        <v>39.3634488805861</v>
+        <v>41.4764988839266</v>
       </c>
       <c r="J22" t="n">
-        <v>28.6399552117374</v>
+        <v>26.3782320020568</v>
       </c>
       <c r="K22" t="n">
-        <v>26.2338887721686</v>
+        <v>27.0615605797606</v>
       </c>
       <c r="L22" t="n">
-        <v>26.1430978185694</v>
+        <v>26.1374147789988</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.916</v>
+        <v>0.925</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9315</v>
+        <v>0.944</v>
       </c>
       <c r="G23" t="n">
-        <v>4.21418443891739</v>
+        <v>4.30237664858872</v>
       </c>
       <c r="H23" t="n">
-        <v>3.26081461864142</v>
+        <v>2.98908098331761</v>
       </c>
       <c r="I23" t="n">
-        <v>46.4831376060093</v>
+        <v>48.6562023308556</v>
       </c>
       <c r="J23" t="n">
-        <v>33.8092385302724</v>
+        <v>28.8636659901985</v>
       </c>
       <c r="K23" t="n">
-        <v>26.7332438647461</v>
+        <v>27.3247019262569</v>
       </c>
       <c r="L23" t="n">
-        <v>26.7988663415445</v>
+        <v>26.4486458207777</v>
       </c>
     </row>
     <row r="24">
@@ -1261,37 +1261,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.917</v>
+        <v>0.9185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.94</v>
+        <v>0.944</v>
       </c>
       <c r="G24" t="n">
-        <v>4.29414574705358</v>
+        <v>4.19687431392974</v>
       </c>
       <c r="H24" t="n">
-        <v>3.43210733003115</v>
+        <v>2.99993270914519</v>
       </c>
       <c r="I24" t="n">
-        <v>49.3090940584149</v>
+        <v>48.8511241874802</v>
       </c>
       <c r="J24" t="n">
-        <v>35.2257404477465</v>
+        <v>30.7876113586208</v>
       </c>
       <c r="K24" t="n">
-        <v>26.8379611199047</v>
+        <v>27.4221035274112</v>
       </c>
       <c r="L24" t="n">
-        <v>27.0607451221001</v>
+        <v>26.7759985475262</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9085</v>
+        <v>0.919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9325</v>
+        <v>0.9435</v>
       </c>
       <c r="G25" t="n">
-        <v>4.37088279074622</v>
+        <v>4.26944978903011</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55546912166875</v>
+        <v>3.15072131962625</v>
       </c>
       <c r="I25" t="n">
-        <v>50.4935842708568</v>
+        <v>52.0853472032456</v>
       </c>
       <c r="J25" t="n">
-        <v>36.5997314236415</v>
+        <v>31.649616148596</v>
       </c>
       <c r="K25" t="n">
-        <v>26.8315548225706</v>
+        <v>27.5585149018864</v>
       </c>
       <c r="L25" t="n">
-        <v>26.9744701025176</v>
+        <v>26.7062653146597</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.896</v>
+        <v>0.9165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9185</v>
+        <v>0.945</v>
       </c>
       <c r="G26" t="n">
-        <v>4.51299215704462</v>
+        <v>4.34355912656414</v>
       </c>
       <c r="H26" t="n">
-        <v>3.52919920910883</v>
+        <v>3.32185983628759</v>
       </c>
       <c r="I26" t="n">
-        <v>51.8792993161706</v>
+        <v>52.8826614185952</v>
       </c>
       <c r="J26" t="n">
-        <v>38.4998513518642</v>
+        <v>32.6882903931124</v>
       </c>
       <c r="K26" t="n">
-        <v>26.8168818056667</v>
+        <v>27.4283324759222</v>
       </c>
       <c r="L26" t="n">
-        <v>27.0574721722905</v>
+        <v>26.6755036530538</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.911</v>
+        <v>0.9095</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9285</v>
+        <v>0.9375</v>
       </c>
       <c r="G27" t="n">
-        <v>4.46695799232816</v>
+        <v>4.48057992555716</v>
       </c>
       <c r="H27" t="n">
-        <v>3.53090344162174</v>
+        <v>3.2679685797108</v>
       </c>
       <c r="I27" t="n">
-        <v>49.6820287280381</v>
+        <v>55.5160719178603</v>
       </c>
       <c r="J27" t="n">
-        <v>35.369693207689</v>
+        <v>34.1807116975639</v>
       </c>
       <c r="K27" t="n">
-        <v>26.942164917843</v>
+        <v>27.366004377136</v>
       </c>
       <c r="L27" t="n">
-        <v>26.9731208033361</v>
+        <v>26.7644327490205</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8915</v>
+        <v>0.916</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9145</v>
+        <v>0.942</v>
       </c>
       <c r="G28" t="n">
-        <v>4.54371798167675</v>
+        <v>4.51982554667318</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55792890791467</v>
+        <v>3.17768432559818</v>
       </c>
       <c r="I28" t="n">
-        <v>54.4632401806138</v>
+        <v>53.9662769530546</v>
       </c>
       <c r="J28" t="n">
-        <v>41.232206045265</v>
+        <v>33.4473074430702</v>
       </c>
       <c r="K28" t="n">
-        <v>26.8683330380583</v>
+        <v>27.2916469271078</v>
       </c>
       <c r="L28" t="n">
-        <v>26.9660639649072</v>
+        <v>26.6569832923742</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8925</v>
+        <v>0.921</v>
       </c>
       <c r="F29" t="n">
-        <v>0.92</v>
+        <v>0.9425</v>
       </c>
       <c r="G29" t="n">
-        <v>4.48489973798337</v>
+        <v>4.34502363980456</v>
       </c>
       <c r="H29" t="n">
-        <v>3.58682046389531</v>
+        <v>3.25287668532041</v>
       </c>
       <c r="I29" t="n">
-        <v>56.7640887186026</v>
+        <v>54.1949561192188</v>
       </c>
       <c r="J29" t="n">
-        <v>40.6584195505289</v>
+        <v>34.4873644274932</v>
       </c>
       <c r="K29" t="n">
-        <v>27.0408441215928</v>
+        <v>27.2834307681269</v>
       </c>
       <c r="L29" t="n">
-        <v>27.0752867557547</v>
+        <v>26.715568569152</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8975</v>
+        <v>0.926</v>
       </c>
       <c r="F30" t="n">
-        <v>0.919</v>
+        <v>0.948</v>
       </c>
       <c r="G30" t="n">
-        <v>4.54024231995189</v>
+        <v>4.46075506218565</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45602768510544</v>
+        <v>3.16282372194099</v>
       </c>
       <c r="I30" t="n">
-        <v>57.9244072560563</v>
+        <v>56.6749656709838</v>
       </c>
       <c r="J30" t="n">
-        <v>42.9599016094805</v>
+        <v>35.78975373809</v>
       </c>
       <c r="K30" t="n">
-        <v>27.0366931442896</v>
+        <v>27.5863528359746</v>
       </c>
       <c r="L30" t="n">
-        <v>27.0641843987021</v>
+        <v>26.9654773539478</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.905</v>
+        <v>0.914</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9265</v>
+        <v>0.94</v>
       </c>
       <c r="G31" t="n">
-        <v>4.60020987470352</v>
+        <v>4.2804130544725</v>
       </c>
       <c r="H31" t="n">
-        <v>3.52562313053212</v>
+        <v>3.1966164579354</v>
       </c>
       <c r="I31" t="n">
-        <v>56.6348930619158</v>
+        <v>54.9860886556156</v>
       </c>
       <c r="J31" t="n">
-        <v>41.9883016958416</v>
+        <v>35.2683862174099</v>
       </c>
       <c r="K31" t="n">
-        <v>27.0417289499872</v>
+        <v>27.4708876028886</v>
       </c>
       <c r="L31" t="n">
-        <v>27.173195294545</v>
+        <v>26.9065045474889</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.945</v>
+        <v>0.944</v>
       </c>
       <c r="F32" t="n">
-        <v>0.966</v>
+        <v>0.9705</v>
       </c>
       <c r="G32" t="n">
-        <v>4.00995719334313</v>
+        <v>4.09802496123122</v>
       </c>
       <c r="H32" t="n">
-        <v>2.72160400140212</v>
+        <v>2.80017281354939</v>
       </c>
       <c r="I32" t="n">
-        <v>38.070793301551</v>
+        <v>39.0096584275337</v>
       </c>
       <c r="J32" t="n">
-        <v>22.4439037744579</v>
+        <v>21.0013473718499</v>
       </c>
       <c r="K32" t="n">
-        <v>25.8039555623024</v>
+        <v>25.9078675907831</v>
       </c>
       <c r="L32" t="n">
-        <v>24.6370586304737</v>
+        <v>24.2623462885641</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9275</v>
+        <v>0.934</v>
       </c>
       <c r="F33" t="n">
-        <v>0.957</v>
+        <v>0.962</v>
       </c>
       <c r="G33" t="n">
-        <v>4.36157698451277</v>
+        <v>4.18966073192586</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88223135570502</v>
+        <v>2.76995961782953</v>
       </c>
       <c r="I33" t="n">
-        <v>43.2926997594853</v>
+        <v>41.1923269205567</v>
       </c>
       <c r="J33" t="n">
-        <v>25.9194454142281</v>
+        <v>22.8639267459862</v>
       </c>
       <c r="K33" t="n">
-        <v>26.2074336116541</v>
+        <v>25.8647766812629</v>
       </c>
       <c r="L33" t="n">
-        <v>24.9492122448223</v>
+        <v>24.3688855716448</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.928</v>
+        <v>0.9355</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9535</v>
+        <v>0.9595</v>
       </c>
       <c r="G34" t="n">
-        <v>4.27926580673587</v>
+        <v>4.22725834991528</v>
       </c>
       <c r="H34" t="n">
-        <v>2.91862855877783</v>
+        <v>2.80845521003622</v>
       </c>
       <c r="I34" t="n">
-        <v>42.9662127989187</v>
+        <v>42.236898543972</v>
       </c>
       <c r="J34" t="n">
-        <v>25.4219528889029</v>
+        <v>24.1931718407558</v>
       </c>
       <c r="K34" t="n">
-        <v>26.3421824656609</v>
+        <v>26.2410125635305</v>
       </c>
       <c r="L34" t="n">
-        <v>25.0106979469275</v>
+        <v>24.7436436372288</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9275</v>
+        <v>0.9355</v>
       </c>
       <c r="F35" t="n">
         <v>0.9555</v>
       </c>
       <c r="G35" t="n">
-        <v>4.10039869481232</v>
+        <v>4.08817256903461</v>
       </c>
       <c r="H35" t="n">
-        <v>2.81019762036879</v>
+        <v>2.81109261788762</v>
       </c>
       <c r="I35" t="n">
-        <v>44.8031257984196</v>
+        <v>43.3947984311098</v>
       </c>
       <c r="J35" t="n">
-        <v>26.1273106860599</v>
+        <v>25.2673824490713</v>
       </c>
       <c r="K35" t="n">
-        <v>26.4603406377967</v>
+        <v>26.220490519355</v>
       </c>
       <c r="L35" t="n">
-        <v>25.1556624497294</v>
+        <v>24.8374613589584</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9245</v>
+        <v>0.924</v>
       </c>
       <c r="F36" t="n">
-        <v>0.947</v>
+        <v>0.956</v>
       </c>
       <c r="G36" t="n">
-        <v>4.16856308420806</v>
+        <v>4.31230500899875</v>
       </c>
       <c r="H36" t="n">
-        <v>2.86581977438287</v>
+        <v>3.00996156820034</v>
       </c>
       <c r="I36" t="n">
-        <v>47.9954084879218</v>
+        <v>46.1380697478926</v>
       </c>
       <c r="J36" t="n">
-        <v>28.9268135994757</v>
+        <v>26.3755649871157</v>
       </c>
       <c r="K36" t="n">
-        <v>26.535735213145</v>
+        <v>26.3002147049236</v>
       </c>
       <c r="L36" t="n">
-        <v>25.3209820958413</v>
+        <v>24.9052421342719</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.923</v>
+        <v>0.9285</v>
       </c>
       <c r="F37" t="n">
-        <v>0.95</v>
+        <v>0.9575</v>
       </c>
       <c r="G37" t="n">
-        <v>4.29742509454881</v>
+        <v>4.32592365997864</v>
       </c>
       <c r="H37" t="n">
-        <v>2.97768640191985</v>
+        <v>2.79182145737836</v>
       </c>
       <c r="I37" t="n">
-        <v>46.6345275859887</v>
+        <v>45.5807796953398</v>
       </c>
       <c r="J37" t="n">
-        <v>28.4701005993394</v>
+        <v>24.9453529900746</v>
       </c>
       <c r="K37" t="n">
-        <v>26.2631310507855</v>
+        <v>26.4500584603776</v>
       </c>
       <c r="L37" t="n">
-        <v>25.1136602592383</v>
+        <v>25.0195232620595</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9315</v>
+        <v>0.9225</v>
       </c>
       <c r="F38" t="n">
-        <v>0.958</v>
+        <v>0.9535</v>
       </c>
       <c r="G38" t="n">
-        <v>4.21145184324246</v>
+        <v>4.32027994726774</v>
       </c>
       <c r="H38" t="n">
-        <v>2.89941695067987</v>
+        <v>2.88736454081823</v>
       </c>
       <c r="I38" t="n">
-        <v>47.5799920115717</v>
+        <v>47.3215044956137</v>
       </c>
       <c r="J38" t="n">
-        <v>28.4581797296734</v>
+        <v>26.3839511226212</v>
       </c>
       <c r="K38" t="n">
-        <v>26.3796015283367</v>
+        <v>26.0994141035102</v>
       </c>
       <c r="L38" t="n">
-        <v>25.3035624002716</v>
+        <v>24.8986733276536</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.93</v>
+        <v>0.9195</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9575</v>
+        <v>0.9535</v>
       </c>
       <c r="G39" t="n">
-        <v>4.34961524639797</v>
+        <v>4.49894384249318</v>
       </c>
       <c r="H39" t="n">
-        <v>2.88920510251873</v>
+        <v>2.97233892882441</v>
       </c>
       <c r="I39" t="n">
-        <v>47.7571824981283</v>
+        <v>48.0445751208969</v>
       </c>
       <c r="J39" t="n">
-        <v>27.9116094851172</v>
+        <v>27.0573360023596</v>
       </c>
       <c r="K39" t="n">
-        <v>26.4140502506195</v>
+        <v>26.4265430647595</v>
       </c>
       <c r="L39" t="n">
-        <v>25.4196621000629</v>
+        <v>24.9372732728998</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9295</v>
+        <v>0.9285</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9495</v>
+        <v>0.958</v>
       </c>
       <c r="G40" t="n">
-        <v>4.22245166495901</v>
+        <v>4.28441243917413</v>
       </c>
       <c r="H40" t="n">
-        <v>3.00326521458389</v>
+        <v>2.8268515631881</v>
       </c>
       <c r="I40" t="n">
-        <v>51.343826907522</v>
+        <v>45.7881820847677</v>
       </c>
       <c r="J40" t="n">
-        <v>30.1881661132112</v>
+        <v>26.0960378266926</v>
       </c>
       <c r="K40" t="n">
-        <v>26.6415803625048</v>
+        <v>26.504909715843</v>
       </c>
       <c r="L40" t="n">
-        <v>25.5510996371562</v>
+        <v>25.1604753279206</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9265</v>
+        <v>0.9315</v>
       </c>
       <c r="F41" t="n">
-        <v>0.951</v>
+        <v>0.954</v>
       </c>
       <c r="G41" t="n">
-        <v>4.32612818624829</v>
+        <v>4.39355057524411</v>
       </c>
       <c r="H41" t="n">
-        <v>2.95363768969191</v>
+        <v>2.79470092939005</v>
       </c>
       <c r="I41" t="n">
-        <v>45.9957053151082</v>
+        <v>48.1402686502337</v>
       </c>
       <c r="J41" t="n">
-        <v>27.6637102497016</v>
+        <v>27.4024043347831</v>
       </c>
       <c r="K41" t="n">
-        <v>26.4502593997523</v>
+        <v>26.6261841835227</v>
       </c>
       <c r="L41" t="n">
-        <v>25.3222543327919</v>
+        <v>25.1770396614907</v>
       </c>
     </row>
   </sheetData>
